--- a/Templates/LessonReport.xlsx
+++ b/Templates/LessonReport.xlsx
@@ -18,14 +18,63 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Предмет</t>
+  </si>
+  <si>
+    <t>Отчет по урокам</t>
+  </si>
+  <si>
+    <t>Группа</t>
+  </si>
+  <si>
+    <t>Студент</t>
+  </si>
+  <si>
+    <t>Осталось</t>
+  </si>
+  <si>
+    <t>Кол-во часов:</t>
+  </si>
+  <si>
+    <t>Пройдедно</t>
+  </si>
+  <si>
+    <t>План</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -37,7 +86,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,15 +94,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,9 +177,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -109,12 +217,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +257,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -181,7 +289,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -331,12 +439,179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="7" max="7" width="6.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" customWidth="1"/>
+    <col min="15" max="15" width="19" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A6:C7"/>
+    <mergeCell ref="D6:F7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:I4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>